--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/joachim_svensson_kpmg_no/Documents/Desktop/projects/NorwegianHealthSector/Finnmarkssykehusene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F1BFE8-3985-4C14-8D8F-15E840D77F01}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F7EFA7-C102-4FDC-8411-A335422492F6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bemanningsplan (2)" sheetId="5" r:id="rId1"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7492E8-5BAA-4205-8C79-80504931582E}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -3805,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4017C6-41D0-4B5F-B3F7-48B94B162631}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3846,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/joachim_svensson_kpmg_no/Documents/Desktop/projects/NorwegianHealthSector/Finnmarkssykehusene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F7EFA7-C102-4FDC-8411-A335422492F6}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A733DB9-7848-4B0D-88CD-108611422B96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bemanningsplan (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="bemanningsplan" sheetId="1" r:id="rId2"/>
-    <sheet name="ppp" sheetId="2" r:id="rId3"/>
-    <sheet name="døgnrytmetabell" sheetId="4" r:id="rId4"/>
-    <sheet name="activity_statuses" sheetId="3" r:id="rId5"/>
+    <sheet name="døgnrytmetabell (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="bemanningsplan (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="bemanningsplan" sheetId="1" r:id="rId3"/>
+    <sheet name="ppp" sheetId="2" r:id="rId4"/>
+    <sheet name="døgnrytmetabell" sheetId="4" r:id="rId5"/>
+    <sheet name="activity_statuses" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -120,9 +121,6 @@
     <t>1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-24-25-26-27-28-29-30-31-32-33-34-35-36-37-38-39-40-41-42-43-44-45-46-47-48-49-50-51-52</t>
   </si>
   <si>
-    <t>Aktivitet</t>
-  </si>
-  <si>
     <t>Døgnrytme</t>
   </si>
   <si>
@@ -140,6 +138,24 @@
   <si>
     <t>Alternativ 3</t>
   </si>
+  <si>
+    <t>sykehus</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>hammerfest</t>
+  </si>
+  <si>
+    <t>medisinsk</t>
+  </si>
+  <si>
+    <t>kirurgisk</t>
+  </si>
+  <si>
+    <t>1-52</t>
+  </si>
 </sst>
 </file>
 
@@ -148,10 +164,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,11 +483,1759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED75EF4-1419-4EA3-A824-E58A836BC74D}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrongful input!" error="Please input a valid option from the menu" promptTitle="Select Døgnrytmeaktivitet" prompt="Hvor mye aktivitet er det denne timen?" xr:uid="{2A9D616F-AA35-420D-BE1A-7CC610C39384}">
+          <x14:formula1>
+            <xm:f>activity_statuses!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:I49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7492E8-5BAA-4205-8C79-80504931582E}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,9 +2243,10 @@
     <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="1"/>
     <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -507,10 +2278,16 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.29166666666666669</v>
       </c>
@@ -539,13 +2316,19 @@
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.625</v>
       </c>
@@ -574,13 +2357,19 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.91666666666666663</v>
       </c>
@@ -609,13 +2398,19 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -644,13 +2439,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.375</v>
       </c>
@@ -679,13 +2480,19 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -714,13 +2521,19 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.95833333333333337</v>
       </c>
@@ -749,13 +2562,19 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.3125</v>
       </c>
@@ -784,13 +2603,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.625</v>
       </c>
@@ -819,13 +2644,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.91666666666666663</v>
       </c>
@@ -854,13 +2685,19 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.3125</v>
       </c>
@@ -889,13 +2726,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.625</v>
       </c>
@@ -924,13 +2767,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -959,13 +2808,19 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.3125</v>
       </c>
@@ -994,13 +2849,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
@@ -1029,13 +2890,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1064,13 +2931,19 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.3125</v>
       </c>
@@ -1099,13 +2972,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.5</v>
       </c>
@@ -1134,13 +3013,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.625</v>
       </c>
@@ -1169,13 +3054,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1204,13 +3095,19 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.3125</v>
       </c>
@@ -1239,13 +3136,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -1274,13 +3177,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0.625</v>
       </c>
@@ -1309,13 +3218,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1344,13 +3259,19 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0.3125</v>
       </c>
@@ -1379,13 +3300,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>0.5</v>
       </c>
@@ -1414,13 +3341,19 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>0.625</v>
       </c>
@@ -1449,13 +3382,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1484,13 +3423,19 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>0.3125</v>
       </c>
@@ -1519,13 +3464,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>0.5</v>
       </c>
@@ -1554,13 +3505,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>0.625</v>
       </c>
@@ -1589,13 +3546,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1624,13 +3587,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -1659,13 +3628,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1694,13 +3669,19 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>0.3125</v>
       </c>
@@ -1729,13 +3710,19 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>0.625</v>
       </c>
@@ -1764,13 +3751,19 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1799,13 +3792,19 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>0.3125</v>
       </c>
@@ -1834,13 +3833,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>0.5</v>
       </c>
@@ -1869,13 +3874,19 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>0.625</v>
       </c>
@@ -1904,13 +3915,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -1939,13 +3956,19 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>0.3125</v>
       </c>
@@ -1974,13 +3997,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>0.5</v>
       </c>
@@ -2009,13 +4038,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>0.625</v>
       </c>
@@ -2044,13 +4079,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>0.92708333333333337</v>
       </c>
@@ -2079,23 +4120,1875 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s">
         <v>30</v>
       </c>
+      <c r="L81" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>11</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3801,20 +7694,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4017C6-41D0-4B5F-B3F7-48B94B162631}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3846,10 +7740,16 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <f>bemanningsplan!A2</f>
         <v>0.29166666666666669</v>
@@ -3879,16 +7779,21 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>bemanningsplan!J2</f>
-        <v>1-2-3-4</v>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K2" t="str">
         <f>bemanningsplan!K2</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>bemanningsplan!A3</f>
         <v>0.625</v>
@@ -3918,16 +7823,21 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f>bemanningsplan!J3</f>
-        <v>1-2-3-4</v>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K3" t="str">
         <f>bemanningsplan!K3</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <f>bemanningsplan!A4</f>
         <v>0.91666666666666663</v>
@@ -3957,16 +7867,21 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>bemanningsplan!J4</f>
-        <v>1-2-3-4</v>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K4" t="str">
         <f>bemanningsplan!K4</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <f>bemanningsplan!A5</f>
         <v>0.39583333333333331</v>
@@ -3996,16 +7911,21 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f>bemanningsplan!J5</f>
-        <v>1-4</v>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K5" t="str">
         <f>bemanningsplan!K5</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <f>bemanningsplan!A6</f>
         <v>0.375</v>
@@ -4035,16 +7955,21 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f>bemanningsplan!J6</f>
-        <v>1-2-3-4</v>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K6" t="str">
         <f>bemanningsplan!K6</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <f>bemanningsplan!A7</f>
         <v>0.70833333333333337</v>
@@ -4074,16 +7999,21 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="str">
-        <f>bemanningsplan!J7</f>
-        <v>2-4</v>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K7" t="str">
         <f>bemanningsplan!K7</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <f>bemanningsplan!A8</f>
         <v>0.95833333333333337</v>
@@ -4113,16 +8043,21 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="str">
-        <f>bemanningsplan!J8</f>
-        <v>1-3</v>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K8" t="str">
         <f>bemanningsplan!K8</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f>bemanningsplan!A9</f>
         <v>0.3125</v>
@@ -4152,16 +8087,21 @@
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="1" t="str">
-        <f>bemanningsplan!J9</f>
-        <v>1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-24-25-26-27-28-29-30-31-32-33-34-35-36-37-38-39-40-41-42-43-44-45-46-47-48-49-50-51-52</v>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K9" t="str">
         <f>bemanningsplan!K9</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <f>bemanningsplan!A10</f>
         <v>0.625</v>
@@ -4191,16 +8131,21 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="1" t="str">
-        <f>bemanningsplan!J10</f>
-        <v>1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-24-25-26-27-28-29-30-31-32-33-34-35-36-37-38-39-40-41-42-43-44-45-46-47-48-49-50-51-52</v>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K10" t="str">
         <f>bemanningsplan!K10</f>
         <v>Inaktiv</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <f>bemanningsplan!A11</f>
         <v>0.91666666666666663</v>
@@ -4230,13 +8175,458 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="1" t="str">
-        <f>bemanningsplan!J11</f>
-        <v>1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-24-25-26-27-28-29-30-31-32-33-34-35-36-37-38-39-40-41-42-43-44-45-46-47-48-49-50-51-52</v>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K11" t="str">
         <f>bemanningsplan!K11</f>
         <v>Inaktiv</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <f>bemanningsplan!A12</f>
+        <v>0.3125</v>
+      </c>
+      <c r="B12" s="3">
+        <f>bemanningsplan!B12</f>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="str">
+        <f>bemanningsplan!K12</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <f>bemanningsplan!A13</f>
+        <v>0.625</v>
+      </c>
+      <c r="B13" s="3">
+        <f>bemanningsplan!B13</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="str">
+        <f>bemanningsplan!K13</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <f>bemanningsplan!A14</f>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B14" s="3">
+        <f>bemanningsplan!B14</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="str">
+        <f>bemanningsplan!K14</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f>bemanningsplan!A15</f>
+        <v>0.3125</v>
+      </c>
+      <c r="B15" s="3">
+        <f>bemanningsplan!B15</f>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="str">
+        <f>bemanningsplan!K15</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <f>bemanningsplan!A16</f>
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="3">
+        <f>bemanningsplan!B16</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="str">
+        <f>bemanningsplan!K16</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <f>bemanningsplan!A17</f>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B17" s="3">
+        <f>bemanningsplan!B17</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" t="str">
+        <f>bemanningsplan!K17</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <f>bemanningsplan!A18</f>
+        <v>0.3125</v>
+      </c>
+      <c r="B18" s="3">
+        <f>bemanningsplan!B18</f>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="str">
+        <f>bemanningsplan!K18</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <f>bemanningsplan!A19</f>
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="3">
+        <f>bemanningsplan!B19</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="str">
+        <f>bemanningsplan!K19</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <f>bemanningsplan!A20</f>
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="3">
+        <f>bemanningsplan!B20</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="str">
+        <f>bemanningsplan!K20</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <f>bemanningsplan!A21</f>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="B21" s="3">
+        <f>bemanningsplan!B21</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="str">
+        <f>bemanningsplan!K21</f>
+        <v>Inaktiv</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4244,12 +8634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C839-C4AE-402A-9328-3BE42A031A1A}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4257,7 +8647,7 @@
     <col min="1" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4265,10 +8655,34 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4278,8 +8692,32 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4289,8 +8727,32 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -4300,8 +8762,32 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.125</v>
       </c>
@@ -4311,8 +8797,32 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.16666666666666699</v>
       </c>
@@ -4322,8 +8832,32 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.20833333333333301</v>
       </c>
@@ -4333,8 +8867,32 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.25</v>
       </c>
@@ -4344,8 +8902,32 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.29166666666666702</v>
       </c>
@@ -4355,8 +8937,32 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -4366,8 +8972,32 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.375</v>
       </c>
@@ -4377,8 +9007,32 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.41666666666666702</v>
       </c>
@@ -4388,8 +9042,32 @@
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -4399,8 +9077,32 @@
       <c r="C13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.5</v>
       </c>
@@ -4410,8 +9112,32 @@
       <c r="C14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.54166666666666696</v>
       </c>
@@ -4421,8 +9147,32 @@
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.58333333333333304</v>
       </c>
@@ -4432,8 +9182,32 @@
       <c r="C16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.625</v>
       </c>
@@ -4443,8 +9217,32 @@
       <c r="C17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.66666666666666696</v>
       </c>
@@ -4454,8 +9252,32 @@
       <c r="C18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.70833333333333304</v>
       </c>
@@ -4465,8 +9287,32 @@
       <c r="C19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.75</v>
       </c>
@@ -4476,8 +9322,32 @@
       <c r="C20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.79166666666666696</v>
       </c>
@@ -4487,8 +9357,32 @@
       <c r="C21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.83333333333333304</v>
       </c>
@@ -4498,8 +9392,32 @@
       <c r="C22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.875</v>
       </c>
@@ -4509,8 +9427,32 @@
       <c r="C23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0.91666666666666696</v>
       </c>
@@ -4520,8 +9462,32 @@
       <c r="C24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.95833333333333304</v>
       </c>
@@ -4530,6 +9496,870 @@
       </c>
       <c r="C25">
         <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4537,11 +10367,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrongful input!" error="Please input a valid option from the menu" promptTitle="Select Døgnrytmeaktivitet" prompt="Hvor mye aktivitet er det denne timen?" xr:uid="{4C893D87-18A7-4B26-AFA3-1717BBEA150A}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrongful input!" error="Please input a valid option from the menu" promptTitle="Select Døgnrytmeaktivitet" prompt="Hvor mye aktivitet er det denne timen?" xr:uid="{9809B295-4B80-4C54-A423-2025CD483639}">
           <x14:formula1>
             <xm:f>activity_statuses!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C25</xm:sqref>
+          <xm:sqref>C2:I49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4549,7 +10379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0624B9A-9357-4A5C-964E-9C3AA87D8D64}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -4567,7 +10397,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/joachim_svensson_kpmg_no/Documents/Desktop/projects/NorwegianHealthSector/Finnmarkssykehusene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A733DB9-7848-4B0D-88CD-108611422B96}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF537396-3170-47E5-BE1E-323CFE224352}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="døgnrytmetabell (2)" sheetId="6" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:K49"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5987,7 +5987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -8638,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C839-C4AE-402A-9328-3BE42A031A1A}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9530,7 +9530,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -9600,25 +9600,25 @@
         <v>0.125</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -9635,25 +9635,25 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -9670,25 +9670,25 @@
         <v>0.20833333333333401</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -9705,25 +9705,25 @@
         <v>0.25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -9740,25 +9740,25 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -9775,25 +9775,25 @@
         <v>0.33333333333333398</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -9810,25 +9810,25 @@
         <v>0.375</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
@@ -9845,25 +9845,25 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
         <v>34</v>
@@ -9880,25 +9880,25 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>
@@ -9915,25 +9915,25 @@
         <v>0.5</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
@@ -9965,10 +9965,10 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="s">
         <v>34</v>
@@ -10067,7 +10067,7 @@
         <v>10</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -10102,7 +10102,7 @@
         <v>10</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -10125,25 +10125,25 @@
         <v>0.75</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="s">
         <v>34</v>
@@ -10160,25 +10160,25 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" t="s">
         <v>34</v>
@@ -10207,7 +10207,7 @@
         <v>8</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>8</v>
@@ -10230,25 +10230,25 @@
         <v>0.875</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
         <v>34</v>
@@ -10265,25 +10265,25 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>34</v>
@@ -10300,25 +10300,25 @@
         <v>0.95833333333333404</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>34</v>
@@ -10353,7 +10353,7 @@
         <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>34</v>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/joachim_svensson_kpmg_no/Documents/Desktop/projects/NorwegianHealthSector/Finnmarkssykehusene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF537396-3170-47E5-BE1E-323CFE224352}"/>
+  <xr:revisionPtr revIDLastSave="701" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6266AC42-9188-4639-855E-BA19F4FAC830}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8638,13 +8638,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C839-C4AE-402A-9328-3BE42A031A1A}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/joachim_svensson_kpmg_no/Documents/Desktop/projects/NorwegianHealthSector/Finnmarkssykehusene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="701" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6266AC42-9188-4639-855E-BA19F4FAC830}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="11_F25DC773A252ABDACC10487AF99C75725BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D93EAD9-C137-4E35-9AE0-6713B7F2B070}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="døgnrytmetabell (2)" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="41">
   <si>
     <t>Monday</t>
   </si>
@@ -156,6 +156,15 @@
   <si>
     <t>1-52</t>
   </si>
+  <si>
+    <t>Eksisterende</t>
+  </si>
+  <si>
+    <t>Forslag</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
 </sst>
 </file>
 
@@ -199,11 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,17 +2244,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7492E8-5BAA-4205-8C79-80504931582E}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5974,6 +5986,416 @@
         <v>34</v>
       </c>
       <c r="M91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4">
+        <v>9</v>
+      </c>
+      <c r="E92" s="4">
+        <v>9</v>
+      </c>
+      <c r="F92" s="4">
+        <v>9</v>
+      </c>
+      <c r="G92" s="4">
+        <v>9</v>
+      </c>
+      <c r="H92" s="4">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>7</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C93" s="4">
+        <v>8</v>
+      </c>
+      <c r="D93" s="4">
+        <v>8</v>
+      </c>
+      <c r="E93" s="4">
+        <v>8</v>
+      </c>
+      <c r="F93" s="4">
+        <v>8</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8</v>
+      </c>
+      <c r="H93" s="4">
+        <v>6</v>
+      </c>
+      <c r="I93" s="4">
+        <v>6</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4">
+        <v>3</v>
+      </c>
+      <c r="I94" s="4">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C95" s="4">
+        <v>7</v>
+      </c>
+      <c r="D95" s="4">
+        <v>7</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7</v>
+      </c>
+      <c r="F95" s="4">
+        <v>7</v>
+      </c>
+      <c r="G95" s="4">
+        <v>7</v>
+      </c>
+      <c r="H95" s="4">
+        <v>6</v>
+      </c>
+      <c r="I95" s="4">
+        <v>6</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4">
+        <v>6</v>
+      </c>
+      <c r="E96" s="4">
+        <v>6</v>
+      </c>
+      <c r="F96" s="4">
+        <v>6</v>
+      </c>
+      <c r="G96" s="4">
+        <v>6</v>
+      </c>
+      <c r="H96" s="4">
+        <v>5</v>
+      </c>
+      <c r="I96" s="4">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C97" s="4">
+        <v>3</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3</v>
+      </c>
+      <c r="F97" s="4">
+        <v>3</v>
+      </c>
+      <c r="G97" s="4">
+        <v>3</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4">
+        <v>6</v>
+      </c>
+      <c r="E98" s="4">
+        <v>6</v>
+      </c>
+      <c r="F98" s="4">
+        <v>6</v>
+      </c>
+      <c r="G98" s="4">
+        <v>6</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="4">
+        <v>5</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C99" s="4">
+        <v>5</v>
+      </c>
+      <c r="D99" s="4">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4">
+        <v>6</v>
+      </c>
+      <c r="F99" s="4">
+        <v>5</v>
+      </c>
+      <c r="G99" s="4">
+        <v>3</v>
+      </c>
+      <c r="H99" s="4">
+        <v>5</v>
+      </c>
+      <c r="I99" s="4">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C100" s="4">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3</v>
+      </c>
+      <c r="G100" s="4">
+        <v>3</v>
+      </c>
+      <c r="H100" s="4">
+        <v>3</v>
+      </c>
+      <c r="I100" s="4">
+        <v>3</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8638,8 +9060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C839-C4AE-402A-9328-3BE42A031A1A}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
